--- a/app/data/absenteeism_data_0.xlsx
+++ b/app/data/absenteeism_data_0.xlsx
@@ -476,103 +476,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>31287</v>
+        <v>2727</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dra. Milena Fernandes</t>
+          <t>Emanuella Gonçalves</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45089</v>
+        <v>45092</v>
       </c>
       <c r="G2" t="n">
-        <v>2999.42</v>
+        <v>10077.26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>74040</v>
+        <v>77844</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Leonardo Viana</t>
+          <t>Samuel Moreira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45100</v>
+        <v>45081</v>
       </c>
       <c r="G3" t="n">
-        <v>11777.21</v>
+        <v>6297.91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>74585</v>
+        <v>38990</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maria Vitória da Cunha</t>
+          <t>Juliana das Neves</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45100</v>
+        <v>45102</v>
       </c>
       <c r="G4" t="n">
-        <v>5440.68</v>
+        <v>10889.64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>24322</v>
+        <v>91830</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cecília Campos</t>
+          <t>Lorena Moura</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,85 +581,85 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45082</v>
+        <v>45099</v>
       </c>
       <c r="G5" t="n">
-        <v>7708.75</v>
+        <v>11922.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>48339</v>
+        <v>22631</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sabrina da Mata</t>
+          <t>Alice Souza</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45079</v>
+        <v>45095</v>
       </c>
       <c r="G6" t="n">
-        <v>3397.38</v>
+        <v>8721.92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30971</v>
+        <v>32392</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bruna da Costa</t>
+          <t>Giovanna da Cunha</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45082</v>
+        <v>45083</v>
       </c>
       <c r="G7" t="n">
-        <v>10985.96</v>
+        <v>2738.37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7603</v>
+        <v>12967</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>João Gabriel Oliveira</t>
+          <t>Brenda Ferreira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,22 +668,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="G8" t="n">
-        <v>7832.45</v>
+        <v>6341.91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>73015</v>
+        <v>48251</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Luiza da Rosa</t>
+          <t>Joaquim Campos</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -697,71 +697,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45078</v>
+        <v>45095</v>
       </c>
       <c r="G9" t="n">
-        <v>6523.39</v>
+        <v>12194.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>96459</v>
+        <v>39378</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pedro Henrique Ferreira</t>
+          <t>Luiz Otávio Nogueira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45100</v>
+        <v>45087</v>
       </c>
       <c r="G10" t="n">
-        <v>9508.76</v>
+        <v>8490.700000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>74973</v>
+        <v>92452</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Rafaela Cunha</t>
+          <t>Alexandre Duarte</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45088</v>
+        <v>45092</v>
       </c>
       <c r="G11" t="n">
-        <v>7790.53</v>
+        <v>4987.31</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_0.xlsx
+++ b/app/data/absenteeism_data_0.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>24478</v>
+        <v>8043</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gustavo Henrique Sales</t>
+          <t>Diego Dias</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="G2" t="n">
-        <v>7562.28</v>
+        <v>8011.18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>503</v>
+        <v>93612</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Felipe Nogueira</t>
+          <t>Sr. Eduardo Gonçalves</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,138 +523,138 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45095</v>
+        <v>45078</v>
       </c>
       <c r="G3" t="n">
-        <v>3021.34</v>
+        <v>11666.48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>57314</v>
+        <v>29337</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fernando Cavalcanti</t>
+          <t>Sra. Natália Souza</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>45103</v>
       </c>
       <c r="G4" t="n">
-        <v>12045.17</v>
+        <v>8032.58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>21021</v>
+        <v>51319</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gustavo Porto</t>
+          <t>Pedro Henrique Pires</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45103</v>
+        <v>45094</v>
       </c>
       <c r="G5" t="n">
-        <v>6044.19</v>
+        <v>2824.88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>42157</v>
+        <v>67371</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Srta. Mariana Peixoto</t>
+          <t>Emanuel Almeida</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45093</v>
+        <v>45078</v>
       </c>
       <c r="G6" t="n">
-        <v>9725.940000000001</v>
+        <v>3431.72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>70498</v>
+        <v>92208</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sr. Arthur Cardoso</t>
+          <t>Agatha Mendes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45092</v>
+        <v>45083</v>
       </c>
       <c r="G7" t="n">
-        <v>7083.71</v>
+        <v>2546.44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>61801</v>
+        <v>12256</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>João Felipe Campos</t>
+          <t>Sophia Viana</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -668,56 +668,56 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45081</v>
+        <v>45094</v>
       </c>
       <c r="G8" t="n">
-        <v>8480.790000000001</v>
+        <v>12055.14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>70875</v>
+        <v>5711</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ana Vitória Jesus</t>
+          <t>Raul Silva</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45103</v>
+        <v>45095</v>
       </c>
       <c r="G9" t="n">
-        <v>6360.43</v>
+        <v>5623.71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9354</v>
+        <v>97209</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Enzo Gabriel Nunes</t>
+          <t>Dr. Yago da Costa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45097</v>
+        <v>45087</v>
       </c>
       <c r="G10" t="n">
-        <v>6216.52</v>
+        <v>8845.58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>77192</v>
+        <v>83120</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Augusto Moura</t>
+          <t>Lívia Sales</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45102</v>
+        <v>45090</v>
       </c>
       <c r="G11" t="n">
-        <v>10369.43</v>
+        <v>5274.38</v>
       </c>
     </row>
   </sheetData>
